--- a/biology/Botanique/Guaduella/Guaduella.xlsx
+++ b/biology/Botanique/Guaduella/Guaduella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guaduella est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Puelioideae, originaire d'Afrique tropicale.
 C'est l'unique genre de la tribu des Guaduelleae.
@@ -512,16 +524,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 août 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (30 août 2016) :
 Guaduella densiflora Pilg. (1902)
 Guaduella dichroa Cope (1983)
 Guaduella humilis Clayton (1962)
 Guaduella macrostachys (K.Schum.) Pilg. (1922)
 Guaduella marantifolia Franch. (1887)
 Guaduella oblonga Hutch. ex Clayton (1962)
-Selon The Plant List            (30 août 2016)[3] :
+Selon The Plant List            (30 août 2016) :
 Guaduella densiflora Pilg.
 Guaduella dichroa Cope
 Guaduella humilis Clayton
@@ -529,7 +543,7 @@
 Guaduella marantifolia Franch.
 Guaduella milbreadii Pilg.
 Guaduella oblonga Hutch. ex Clayton
-Selon Tropicos                                           (30 août 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 août 2016) (Attention liste brute contenant possiblement des synonymes) :
 Guaduella densiflora Pilg.
 Guaduella dichroa Cope
 Guaduella foliosa Pilg.
